--- a/CNA_Survey_Data.xlsx
+++ b/CNA_Survey_Data.xlsx
@@ -11,19 +11,20 @@
     <sheet name="Military Service" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Children living in home" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Single Parent" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Primary Language" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Employment Status" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Public Benefits" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Housing" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Transportation needs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Incarceration" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Health" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Childcare Needs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Primary Language" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Employment Status" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Public Benefits" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Housing" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Transportation needs" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Incarceration" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Health" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t xml:space="preserve">survey</t>
   </si>
@@ -203,6 +204,30 @@
   </si>
   <si>
     <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Childcare needs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, I do not need childcare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No-I do not need help paying for childcare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes-I need after-school or summer care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes-I need help getting childcare for my young children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes-I need help getting infant care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes-I need help paying for after-school and/or summer care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes-I need help paying for childcare</t>
   </si>
   <si>
     <t xml:space="preserve">Primary Language</t>
@@ -2323,19 +2348,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" t="e">
-        <v>#N/A</v>
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
       </c>
       <c r="D2" t="n">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="E2" t="n">
         <v>441</v>
       </c>
       <c r="F2" t="n">
-        <v>33.79</v>
+        <v>68.03</v>
       </c>
     </row>
     <row r="3">
@@ -2343,19 +2368,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E3" t="n">
         <v>441</v>
       </c>
       <c r="F3" t="n">
-        <v>27.21</v>
+        <v>25.17</v>
       </c>
     </row>
     <row r="4">
@@ -2363,39 +2388,39 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D4" t="n">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
         <v>441</v>
       </c>
       <c r="F4" t="n">
-        <v>23.58</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="D5" t="n">
-        <v>68</v>
+        <v>1123</v>
       </c>
       <c r="E5" t="n">
-        <v>441</v>
+        <v>1422</v>
       </c>
       <c r="F5" t="n">
-        <v>15.42</v>
+        <v>78.97</v>
       </c>
     </row>
     <row r="6">
@@ -2403,19 +2428,19 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D6" t="n">
-        <v>459</v>
+        <v>188</v>
       </c>
       <c r="E6" t="n">
         <v>1422</v>
       </c>
       <c r="F6" t="n">
-        <v>32.28</v>
+        <v>13.22</v>
       </c>
     </row>
     <row r="7">
@@ -2423,19 +2448,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D7" t="n">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="E7" t="n">
         <v>1422</v>
       </c>
       <c r="F7" t="n">
-        <v>9.7</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="8">
@@ -2443,79 +2468,279 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D8" t="n">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
         <v>1422</v>
       </c>
       <c r="F8" t="n">
-        <v>11.88</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
         <v>81</v>
       </c>
       <c r="D9" t="n">
-        <v>239</v>
+        <v>1423</v>
       </c>
       <c r="E9" t="n">
-        <v>1422</v>
+        <v>1863</v>
       </c>
       <c r="F9" t="n">
-        <v>16.81</v>
+        <v>76.38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D10" t="n">
-        <v>747</v>
+        <v>203</v>
       </c>
       <c r="E10" t="n">
-        <v>1422</v>
+        <v>1863</v>
       </c>
       <c r="F10" t="n">
-        <v>52.53</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" t="e">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="n">
+        <v>188</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1863</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D11" t="n">
-        <v>23</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1422</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.62</v>
+      <c r="D12" t="n">
+        <v>49</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1863</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D13" t="n">
+        <v>176</v>
+      </c>
+      <c r="E13" t="n">
+        <v>441</v>
+      </c>
+      <c r="F13" t="n">
+        <v>39.91</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="n">
+        <v>137</v>
+      </c>
+      <c r="E14" t="n">
+        <v>441</v>
+      </c>
+      <c r="F14" t="n">
+        <v>31.07</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="n">
+        <v>128</v>
+      </c>
+      <c r="E15" t="n">
+        <v>441</v>
+      </c>
+      <c r="F15" t="n">
+        <v>29.02</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1140</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1422</v>
+      </c>
+      <c r="F16" t="n">
+        <v>80.17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="n">
+        <v>264</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1422</v>
+      </c>
+      <c r="F17" t="n">
+        <v>18.57</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D18" t="n">
+        <v>18</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1422</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1268</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1863</v>
+      </c>
+      <c r="F19" t="n">
+        <v>68.06</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="n">
+        <v>401</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1863</v>
+      </c>
+      <c r="F20" t="n">
+        <v>21.52</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D21" t="n">
+        <v>194</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1863</v>
+      </c>
+      <c r="F21" t="n">
+        <v>10.41</v>
       </c>
     </row>
   </sheetData>
@@ -2557,19 +2782,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
+        <v>85</v>
+      </c>
+      <c r="C2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D2" t="n">
-        <v>266</v>
+        <v>149</v>
       </c>
       <c r="E2" t="n">
         <v>441</v>
       </c>
       <c r="F2" t="n">
-        <v>60.32</v>
+        <v>33.79</v>
       </c>
     </row>
     <row r="3">
@@ -2577,19 +2802,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D3" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E3" t="n">
         <v>441</v>
       </c>
       <c r="F3" t="n">
-        <v>31.75</v>
+        <v>27.21</v>
       </c>
     </row>
     <row r="4">
@@ -2597,39 +2822,39 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" t="e">
-        <v>#N/A</v>
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
       </c>
       <c r="D4" t="n">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="E4" t="n">
         <v>441</v>
       </c>
       <c r="F4" t="n">
-        <v>7.94</v>
+        <v>23.58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>1300</v>
+        <v>68</v>
       </c>
       <c r="E5" t="n">
-        <v>1422</v>
+        <v>441</v>
       </c>
       <c r="F5" t="n">
-        <v>91.42</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="6">
@@ -2637,19 +2862,19 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D6" t="n">
-        <v>101</v>
+        <v>459</v>
       </c>
       <c r="E6" t="n">
         <v>1422</v>
       </c>
       <c r="F6" t="n">
-        <v>7.1</v>
+        <v>32.28</v>
       </c>
     </row>
     <row r="7">
@@ -2657,79 +2882,99 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" t="e">
-        <v>#N/A</v>
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="E7" t="n">
         <v>1422</v>
       </c>
       <c r="F7" t="n">
-        <v>1.48</v>
+        <v>9.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="D8" t="n">
-        <v>1566</v>
+        <v>169</v>
       </c>
       <c r="E8" t="n">
-        <v>1863</v>
+        <v>1422</v>
       </c>
       <c r="F8" t="n">
-        <v>84.06</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D9" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E9" t="n">
-        <v>1863</v>
+        <v>1422</v>
       </c>
       <c r="F9" t="n">
-        <v>12.94</v>
+        <v>16.81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" t="e">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="n">
+        <v>747</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1422</v>
+      </c>
+      <c r="F10" t="n">
+        <v>52.53</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D10" t="n">
-        <v>56</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1863</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.01</v>
+      <c r="D11" t="n">
+        <v>23</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1422</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>
@@ -2748,6 +2993,220 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="n">
+        <v>266</v>
+      </c>
+      <c r="E2" t="n">
+        <v>441</v>
+      </c>
+      <c r="F2" t="n">
+        <v>60.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="n">
+        <v>140</v>
+      </c>
+      <c r="E3" t="n">
+        <v>441</v>
+      </c>
+      <c r="F3" t="n">
+        <v>31.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35</v>
+      </c>
+      <c r="E4" t="n">
+        <v>441</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1422</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="n">
+        <v>101</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1422</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1422</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1566</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1863</v>
+      </c>
+      <c r="F8" t="n">
+        <v>84.06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="n">
+        <v>241</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1863</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12.94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D10" t="n">
+        <v>56</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1863</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
@@ -2768,7 +3227,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B2" t="n">
         <v>130</v>
@@ -2780,7 +3239,7 @@
         <v>9.14</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -2788,7 +3247,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B3" t="n">
         <v>97</v>
@@ -2800,7 +3259,7 @@
         <v>6.82</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -2808,7 +3267,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B4" t="n">
         <v>114</v>
@@ -2820,7 +3279,7 @@
         <v>8.02</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -2828,7 +3287,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B5" t="n">
         <v>95</v>
@@ -2840,7 +3299,7 @@
         <v>6.68</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -2848,7 +3307,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B6" t="n">
         <v>28</v>
@@ -2860,7 +3319,7 @@
         <v>1.97</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -2880,7 +3339,7 @@
         <v>77.99</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -2888,7 +3347,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B8" t="n">
         <v>15</v>
@@ -2900,7 +3359,7 @@
         <v>1.05</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -4258,7 +4717,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -4267,18 +4726,18 @@
         <v>61</v>
       </c>
       <c r="D2" t="n">
-        <v>1016</v>
+        <v>188</v>
       </c>
       <c r="E2" t="n">
-        <v>1422</v>
+        <v>441</v>
       </c>
       <c r="F2" t="n">
-        <v>71.45</v>
+        <v>42.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -4287,173 +4746,113 @@
         <v>62</v>
       </c>
       <c r="D3" t="n">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="E3" t="n">
-        <v>1422</v>
+        <v>441</v>
       </c>
       <c r="F3" t="n">
-        <v>14.77</v>
+        <v>13.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" t="n">
-        <v>1422</v>
+        <v>441</v>
       </c>
       <c r="F4" t="n">
-        <v>4.01</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>1422</v>
+        <v>441</v>
       </c>
       <c r="F5" t="n">
-        <v>2.67</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
-        <v>1422</v>
+        <v>441</v>
       </c>
       <c r="F6" t="n">
-        <v>2.6</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E7" t="n">
-        <v>1422</v>
+        <v>441</v>
       </c>
       <c r="F7" t="n">
-        <v>2.32</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
       </c>
-      <c r="C8" t="e">
-        <v>#N/A</v>
+      <c r="C8" t="s">
+        <v>67</v>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E8" t="n">
-        <v>1422</v>
+        <v>441</v>
       </c>
       <c r="F8" t="n">
-        <v>1.13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="n">
-        <v>8</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1422</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.56</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1422</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1422</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.07</v>
+        <v>10.43</v>
       </c>
     </row>
   </sheetData>
@@ -4492,62 +4891,62 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
       <c r="D2" t="n">
-        <v>237</v>
+        <v>1016</v>
       </c>
       <c r="E2" t="n">
-        <v>441</v>
+        <v>1422</v>
       </c>
       <c r="F2" t="n">
-        <v>53.74</v>
+        <v>71.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D3" t="n">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="E3" t="n">
-        <v>441</v>
+        <v>1422</v>
       </c>
       <c r="F3" t="n">
-        <v>41.5</v>
+        <v>14.77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="e">
-        <v>#N/A</v>
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E4" t="n">
-        <v>441</v>
+        <v>1422</v>
       </c>
       <c r="F4" t="n">
-        <v>4.76</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="5">
@@ -4555,19 +4954,19 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" t="n">
-        <v>989</v>
+        <v>38</v>
       </c>
       <c r="E5" t="n">
         <v>1422</v>
       </c>
       <c r="F5" t="n">
-        <v>69.55</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="6">
@@ -4575,19 +4974,19 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D6" t="n">
-        <v>423</v>
+        <v>37</v>
       </c>
       <c r="E6" t="n">
         <v>1422</v>
       </c>
       <c r="F6" t="n">
-        <v>29.75</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="7">
@@ -4595,79 +4994,99 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="e">
-        <v>#N/A</v>
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
         <v>1422</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D8" t="n">
-        <v>1226</v>
+        <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>1863</v>
+        <v>1422</v>
       </c>
       <c r="F8" t="n">
-        <v>65.81</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D9" t="n">
-        <v>606</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>1863</v>
+        <v>1422</v>
       </c>
       <c r="F9" t="n">
-        <v>32.53</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" t="e">
-        <v>#N/A</v>
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
       </c>
       <c r="D10" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>1863</v>
+        <v>1422</v>
       </c>
       <c r="F10" t="n">
-        <v>1.66</v>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1422</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.07</v>
       </c>
     </row>
   </sheetData>
@@ -4709,19 +5128,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D2" t="n">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="E2" t="n">
         <v>441</v>
       </c>
       <c r="F2" t="n">
-        <v>51.02</v>
+        <v>53.74</v>
       </c>
     </row>
     <row r="3">
@@ -4729,19 +5148,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
         <v>59</v>
       </c>
       <c r="D3" t="n">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E3" t="n">
         <v>441</v>
       </c>
       <c r="F3" t="n">
-        <v>43.08</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="4">
@@ -4749,19 +5168,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" t="e">
         <v>#N/A</v>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
         <v>441</v>
       </c>
       <c r="F4" t="n">
-        <v>5.9</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="5">
@@ -4769,19 +5188,19 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D5" t="n">
-        <v>857</v>
+        <v>989</v>
       </c>
       <c r="E5" t="n">
         <v>1422</v>
       </c>
       <c r="F5" t="n">
-        <v>60.27</v>
+        <v>69.55</v>
       </c>
     </row>
     <row r="6">
@@ -4789,19 +5208,19 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
         <v>59</v>
       </c>
       <c r="D6" t="n">
-        <v>549</v>
+        <v>423</v>
       </c>
       <c r="E6" t="n">
         <v>1422</v>
       </c>
       <c r="F6" t="n">
-        <v>38.61</v>
+        <v>29.75</v>
       </c>
     </row>
     <row r="7">
@@ -4809,19 +5228,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C7" t="e">
         <v>#N/A</v>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
         <v>1422</v>
       </c>
       <c r="F7" t="n">
-        <v>1.13</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8">
@@ -4829,19 +5248,19 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D8" t="n">
-        <v>1082</v>
+        <v>1226</v>
       </c>
       <c r="E8" t="n">
         <v>1863</v>
       </c>
       <c r="F8" t="n">
-        <v>58.08</v>
+        <v>65.81</v>
       </c>
     </row>
     <row r="9">
@@ -4849,19 +5268,19 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
         <v>59</v>
       </c>
       <c r="D9" t="n">
-        <v>739</v>
+        <v>606</v>
       </c>
       <c r="E9" t="n">
         <v>1863</v>
       </c>
       <c r="F9" t="n">
-        <v>39.67</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="10">
@@ -4869,19 +5288,19 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C10" t="e">
         <v>#N/A</v>
       </c>
       <c r="D10" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E10" t="n">
         <v>1863</v>
       </c>
       <c r="F10" t="n">
-        <v>2.25</v>
+        <v>1.66</v>
       </c>
     </row>
   </sheetData>
@@ -4923,19 +5342,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D2" t="n">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="E2" t="n">
         <v>441</v>
       </c>
       <c r="F2" t="n">
-        <v>68.03</v>
+        <v>51.02</v>
       </c>
     </row>
     <row r="3">
@@ -4943,19 +5362,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D3" t="n">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="E3" t="n">
         <v>441</v>
       </c>
       <c r="F3" t="n">
-        <v>25.17</v>
+        <v>43.08</v>
       </c>
     </row>
     <row r="4">
@@ -4963,19 +5382,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C4" t="e">
         <v>#N/A</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
         <v>441</v>
       </c>
       <c r="F4" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="5">
@@ -4983,19 +5402,19 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D5" t="n">
-        <v>1123</v>
+        <v>857</v>
       </c>
       <c r="E5" t="n">
         <v>1422</v>
       </c>
       <c r="F5" t="n">
-        <v>78.97</v>
+        <v>60.27</v>
       </c>
     </row>
     <row r="6">
@@ -5003,19 +5422,19 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D6" t="n">
-        <v>188</v>
+        <v>549</v>
       </c>
       <c r="E6" t="n">
         <v>1422</v>
       </c>
       <c r="F6" t="n">
-        <v>13.22</v>
+        <v>38.61</v>
       </c>
     </row>
     <row r="7">
@@ -5023,39 +5442,39 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D7" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="E7" t="n">
         <v>1422</v>
       </c>
       <c r="F7" t="n">
-        <v>6.47</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" t="e">
-        <v>#N/A</v>
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>1082</v>
       </c>
       <c r="E8" t="n">
-        <v>1422</v>
+        <v>1863</v>
       </c>
       <c r="F8" t="n">
-        <v>1.34</v>
+        <v>58.08</v>
       </c>
     </row>
     <row r="9">
@@ -5063,19 +5482,19 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D9" t="n">
-        <v>1423</v>
+        <v>739</v>
       </c>
       <c r="E9" t="n">
         <v>1863</v>
       </c>
       <c r="F9" t="n">
-        <v>76.38</v>
+        <v>39.67</v>
       </c>
     </row>
     <row r="10">
@@ -5083,239 +5502,19 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D10" t="n">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="E10" t="n">
         <v>1863</v>
       </c>
       <c r="F10" t="n">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" t="n">
-        <v>188</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1863</v>
-      </c>
-      <c r="F11" t="n">
-        <v>10.09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D12" t="n">
-        <v>49</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1863</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D13" t="n">
-        <v>176</v>
-      </c>
-      <c r="E13" t="n">
-        <v>441</v>
-      </c>
-      <c r="F13" t="n">
-        <v>39.91</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" t="n">
-        <v>137</v>
-      </c>
-      <c r="E14" t="n">
-        <v>441</v>
-      </c>
-      <c r="F14" t="n">
-        <v>31.07</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" t="n">
-        <v>128</v>
-      </c>
-      <c r="E15" t="n">
-        <v>441</v>
-      </c>
-      <c r="F15" t="n">
-        <v>29.02</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1140</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1422</v>
-      </c>
-      <c r="F16" t="n">
-        <v>80.17</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" t="n">
-        <v>264</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1422</v>
-      </c>
-      <c r="F17" t="n">
-        <v>18.57</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D18" t="n">
-        <v>18</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1422</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1268</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1863</v>
-      </c>
-      <c r="F19" t="n">
-        <v>68.06</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" t="n">
-        <v>401</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1863</v>
-      </c>
-      <c r="F20" t="n">
-        <v>21.52</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D21" t="n">
-        <v>194</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1863</v>
-      </c>
-      <c r="F21" t="n">
-        <v>10.41</v>
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>

--- a/CNA_Survey_Data.xlsx
+++ b/CNA_Survey_Data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t xml:space="preserve">survey</t>
   </si>
@@ -75,6 +75,9 @@
     <t xml:space="preserve">Some College or Advanced Training</t>
   </si>
   <si>
+    <t xml:space="preserve">MACAA</t>
+  </si>
+  <si>
     <t xml:space="preserve">All</t>
   </si>
   <si>
@@ -307,6 +310,18 @@
   </si>
   <si>
     <t xml:space="preserve">40-54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 to 54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 to 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 to 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55 to 59</t>
   </si>
   <si>
     <t xml:space="preserve">Race</t>
@@ -1010,17 +1025,17 @@
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
-        <v>8</v>
+      <c r="C17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D17" t="n">
-        <v>655</v>
+        <v>334</v>
       </c>
       <c r="E17" t="n">
-        <v>1857</v>
+        <v>667</v>
       </c>
       <c r="F17" t="n">
-        <v>35.27</v>
+        <v>50.07</v>
       </c>
     </row>
     <row r="18">
@@ -1031,16 +1046,16 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>276</v>
+        <v>142</v>
       </c>
       <c r="E18" t="n">
-        <v>1857</v>
+        <v>667</v>
       </c>
       <c r="F18" t="n">
-        <v>14.86</v>
+        <v>21.29</v>
       </c>
     </row>
     <row r="19">
@@ -1051,16 +1066,16 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="E19" t="n">
-        <v>1857</v>
+        <v>667</v>
       </c>
       <c r="F19" t="n">
-        <v>12.22</v>
+        <v>13.34</v>
       </c>
     </row>
     <row r="20">
@@ -1071,16 +1086,16 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>215</v>
+        <v>52</v>
       </c>
       <c r="E20" t="n">
-        <v>1857</v>
+        <v>667</v>
       </c>
       <c r="F20" t="n">
-        <v>11.58</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="21">
@@ -1091,16 +1106,16 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="E21" t="n">
-        <v>1857</v>
+        <v>667</v>
       </c>
       <c r="F21" t="n">
-        <v>8.89</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="22">
@@ -1114,13 +1129,13 @@
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="E22" t="n">
-        <v>1857</v>
+        <v>667</v>
       </c>
       <c r="F22" t="n">
-        <v>7.32</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="23">
@@ -1134,13 +1149,13 @@
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>1857</v>
+        <v>667</v>
       </c>
       <c r="F23" t="n">
-        <v>6.73</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="24">
@@ -1150,17 +1165,177 @@
       <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C24" t="e">
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>667</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="n">
+        <v>797</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2524</v>
+      </c>
+      <c r="F25" t="n">
+        <v>31.58</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D24" t="n">
-        <v>58</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1857</v>
-      </c>
-      <c r="F24" t="n">
-        <v>3.12</v>
+      <c r="D26" t="n">
+        <v>392</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2524</v>
+      </c>
+      <c r="F26" t="n">
+        <v>15.53</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="n">
+        <v>328</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2524</v>
+      </c>
+      <c r="F27" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="n">
+        <v>304</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2524</v>
+      </c>
+      <c r="F28" t="n">
+        <v>12.04</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="n">
+        <v>248</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2524</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="n">
+        <v>167</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2524</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>157</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2524</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="n">
+        <v>131</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2524</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5.19</v>
       </c>
     </row>
   </sheetData>
@@ -1202,10 +1377,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
         <v>225</v>
@@ -1222,10 +1397,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
         <v>190</v>
@@ -1242,7 +1417,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" t="e">
         <v>#N/A</v>
@@ -1262,10 +1437,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
         <v>857</v>
@@ -1282,10 +1457,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
         <v>549</v>
@@ -1302,7 +1477,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" t="e">
         <v>#N/A</v>
@@ -1319,13 +1494,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
         <v>1082</v>
@@ -1339,13 +1514,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
         <v>739</v>
@@ -1359,10 +1534,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" t="e">
         <v>#N/A</v>
@@ -1382,7 +1557,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" t="e">
         <v>#N/A</v>
@@ -1402,10 +1577,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
         <v>196</v>
@@ -1422,10 +1597,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="n">
         <v>25</v>
@@ -1442,10 +1617,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
         <v>811</v>
@@ -1462,10 +1637,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
         <v>595</v>
@@ -1482,7 +1657,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" t="e">
         <v>#N/A</v>
@@ -1499,13 +1674,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="n">
         <v>836</v>
@@ -1519,13 +1694,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
         <v>791</v>
@@ -1539,10 +1714,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" t="e">
         <v>#N/A</v>
@@ -1596,10 +1771,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" t="n">
         <v>167</v>
@@ -1616,10 +1791,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" t="n">
         <v>86</v>
@@ -1636,10 +1811,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" t="n">
         <v>58</v>
@@ -1656,10 +1831,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
         <v>56</v>
@@ -1676,10 +1851,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" t="n">
         <v>50</v>
@@ -1696,10 +1871,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" t="n">
         <v>22</v>
@@ -1716,10 +1891,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
@@ -1770,10 +1945,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" t="n">
         <v>300</v>
@@ -1790,10 +1965,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" t="n">
         <v>111</v>
@@ -1810,7 +1985,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" t="e">
         <v>#N/A</v>
@@ -1830,10 +2005,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" t="n">
         <v>1123</v>
@@ -1850,10 +2025,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" t="n">
         <v>188</v>
@@ -1870,10 +2045,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" t="n">
         <v>92</v>
@@ -1890,7 +2065,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" t="e">
         <v>#N/A</v>
@@ -1907,13 +2082,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9" t="n">
         <v>1423</v>
@@ -1927,13 +2102,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" t="n">
         <v>203</v>
@@ -1947,13 +2122,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" t="n">
         <v>188</v>
@@ -1967,10 +2142,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" t="e">
         <v>#N/A</v>
@@ -1990,7 +2165,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" t="e">
         <v>#N/A</v>
@@ -2010,10 +2185,10 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
         <v>137</v>
@@ -2030,10 +2205,10 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
         <v>128</v>
@@ -2050,10 +2225,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="n">
         <v>1140</v>
@@ -2070,10 +2245,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
         <v>264</v>
@@ -2090,7 +2265,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" t="e">
         <v>#N/A</v>
@@ -2107,13 +2282,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="n">
         <v>1268</v>
@@ -2127,13 +2302,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
         <v>401</v>
@@ -2147,10 +2322,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" t="e">
         <v>#N/A</v>
@@ -2204,10 +2379,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
         <v>120</v>
@@ -2224,10 +2399,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
         <v>118</v>
@@ -2244,10 +2419,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" t="n">
         <v>104</v>
@@ -2264,10 +2439,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" t="n">
         <v>76</v>
@@ -2284,7 +2459,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" t="e">
         <v>#N/A</v>
@@ -2304,10 +2479,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" t="n">
         <v>459</v>
@@ -2324,10 +2499,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" t="n">
         <v>138</v>
@@ -2344,10 +2519,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" t="n">
         <v>169</v>
@@ -2364,10 +2539,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10" t="n">
         <v>239</v>
@@ -2384,10 +2559,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="n">
         <v>747</v>
@@ -2404,7 +2579,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" t="e">
         <v>#N/A</v>
@@ -2458,10 +2633,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" t="n">
         <v>216</v>
@@ -2478,10 +2653,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
         <v>170</v>
@@ -2498,10 +2673,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" t="n">
         <v>24</v>
@@ -2518,10 +2693,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" t="n">
         <v>17</v>
@@ -2538,10 +2713,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" t="n">
         <v>9</v>
@@ -2558,10 +2733,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" t="n">
         <v>5</v>
@@ -2578,10 +2753,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D8" t="n">
         <v>688</v>
@@ -2598,10 +2773,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" t="n">
         <v>445</v>
@@ -2618,10 +2793,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10" t="n">
         <v>134</v>
@@ -2638,10 +2813,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D11" t="n">
         <v>74</v>
@@ -2658,10 +2833,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D12" t="n">
         <v>58</v>
@@ -2678,10 +2853,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" t="n">
         <v>23</v>
@@ -2695,13 +2870,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14" t="n">
         <v>858</v>
@@ -2715,13 +2890,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D15" t="n">
         <v>661</v>
@@ -2735,13 +2910,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D16" t="n">
         <v>158</v>
@@ -2755,13 +2930,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D17" t="n">
         <v>91</v>
@@ -2775,13 +2950,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D18" t="n">
         <v>63</v>
@@ -2795,13 +2970,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D19" t="n">
         <v>32</v>
@@ -2818,10 +2993,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D20" t="n">
         <v>316</v>
@@ -2838,10 +3013,10 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D21" t="n">
         <v>70</v>
@@ -2858,10 +3033,10 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D22" t="n">
         <v>27</v>
@@ -2878,7 +3053,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C23" t="e">
         <v>#N/A</v>
@@ -2898,10 +3073,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D24" t="n">
         <v>8</v>
@@ -2918,10 +3093,10 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D25" t="n">
         <v>5</v>
@@ -2938,10 +3113,10 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26" t="n">
         <v>1064</v>
@@ -2958,10 +3133,10 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D27" t="n">
         <v>175</v>
@@ -2978,10 +3153,10 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" t="n">
         <v>130</v>
@@ -2998,10 +3173,10 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" t="n">
         <v>25</v>
@@ -3018,7 +3193,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C30" t="e">
         <v>#N/A</v>
@@ -3038,10 +3213,10 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" t="n">
         <v>9</v>
@@ -3058,10 +3233,10 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D32" t="n">
         <v>3</v>
@@ -3078,19 +3253,19 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D33" t="n">
-        <v>1555</v>
+        <v>354</v>
       </c>
       <c r="E33" t="n">
-        <v>1863</v>
+        <v>1021</v>
       </c>
       <c r="F33" t="n">
-        <v>83.47</v>
+        <v>34.67</v>
       </c>
     </row>
     <row r="34">
@@ -3098,19 +3273,19 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D34" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="E34" t="n">
-        <v>1863</v>
+        <v>1021</v>
       </c>
       <c r="F34" t="n">
-        <v>10.74</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="35">
@@ -3118,19 +3293,19 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" t="e">
-        <v>#N/A</v>
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
       </c>
       <c r="D35" t="n">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="E35" t="n">
-        <v>1863</v>
+        <v>1021</v>
       </c>
       <c r="F35" t="n">
-        <v>1.66</v>
+        <v>13.81</v>
       </c>
     </row>
     <row r="36">
@@ -3138,19 +3313,19 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D36" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="E36" t="n">
-        <v>1863</v>
+        <v>1021</v>
       </c>
       <c r="F36" t="n">
-        <v>1.61</v>
+        <v>9.3</v>
       </c>
     </row>
     <row r="37">
@@ -3158,19 +3333,19 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" t="n">
         <v>89</v>
       </c>
-      <c r="D37" t="n">
-        <v>30</v>
-      </c>
       <c r="E37" t="n">
-        <v>1863</v>
+        <v>1021</v>
       </c>
       <c r="F37" t="n">
-        <v>1.61</v>
+        <v>8.72</v>
       </c>
     </row>
     <row r="38">
@@ -3178,579 +3353,579 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D38" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E38" t="n">
-        <v>1863</v>
+        <v>1021</v>
       </c>
       <c r="F38" t="n">
-        <v>0.91</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D39" t="n">
-        <v>260</v>
+        <v>1555</v>
       </c>
       <c r="E39" t="n">
-        <v>441</v>
+        <v>2884</v>
       </c>
       <c r="F39" t="n">
-        <v>58.96</v>
+        <v>53.92</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D40" t="n">
-        <v>97</v>
+        <v>384</v>
       </c>
       <c r="E40" t="n">
-        <v>441</v>
+        <v>2884</v>
       </c>
       <c r="F40" t="n">
-        <v>22</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" t="e">
-        <v>#N/A</v>
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
+        <v>95</v>
       </c>
       <c r="D41" t="n">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="E41" t="n">
-        <v>441</v>
+        <v>2884</v>
       </c>
       <c r="F41" t="n">
-        <v>9.98</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D42" t="n">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="E42" t="n">
-        <v>441</v>
+        <v>2884</v>
       </c>
       <c r="F42" t="n">
-        <v>5.44</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D43" t="n">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="E43" t="n">
-        <v>441</v>
+        <v>2884</v>
       </c>
       <c r="F43" t="n">
-        <v>2.72</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="E44" t="n">
-        <v>441</v>
+        <v>2884</v>
       </c>
       <c r="F44" t="n">
-        <v>0.45</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="E45" t="n">
-        <v>441</v>
+        <v>2884</v>
       </c>
       <c r="F45" t="n">
-        <v>0.45</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D46" t="n">
-        <v>695</v>
+        <v>52</v>
       </c>
       <c r="E46" t="n">
-        <v>1422</v>
+        <v>2884</v>
       </c>
       <c r="F46" t="n">
-        <v>48.87</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" t="s">
-        <v>95</v>
+        <v>87</v>
+      </c>
+      <c r="C47" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D47" t="n">
-        <v>475</v>
+        <v>31</v>
       </c>
       <c r="E47" t="n">
-        <v>1422</v>
+        <v>2884</v>
       </c>
       <c r="F47" t="n">
-        <v>33.4</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D48" t="n">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="E48" t="n">
-        <v>1422</v>
+        <v>2884</v>
       </c>
       <c r="F48" t="n">
-        <v>7.59</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D49" t="n">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="E49" t="n">
-        <v>1422</v>
+        <v>441</v>
       </c>
       <c r="F49" t="n">
-        <v>5.56</v>
+        <v>58.96</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" t="e">
-        <v>#N/A</v>
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>101</v>
       </c>
       <c r="D50" t="n">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="E50" t="n">
-        <v>1422</v>
+        <v>441</v>
       </c>
       <c r="F50" t="n">
-        <v>2.6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" t="s">
         <v>99</v>
       </c>
+      <c r="C51" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="D51" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E51" t="n">
-        <v>1422</v>
+        <v>441</v>
       </c>
       <c r="F51" t="n">
-        <v>1.76</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E52" t="n">
-        <v>1422</v>
+        <v>441</v>
       </c>
       <c r="F52" t="n">
-        <v>0.21</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D53" t="n">
-        <v>792</v>
+        <v>12</v>
       </c>
       <c r="E53" t="n">
-        <v>1863</v>
+        <v>441</v>
       </c>
       <c r="F53" t="n">
-        <v>42.51</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D54" t="n">
-        <v>735</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>1863</v>
+        <v>441</v>
       </c>
       <c r="F54" t="n">
-        <v>39.45</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C55" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D55" t="n">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>1863</v>
+        <v>441</v>
       </c>
       <c r="F55" t="n">
-        <v>7.09</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" t="e">
-        <v>#N/A</v>
+        <v>99</v>
+      </c>
+      <c r="C56" t="s">
+        <v>101</v>
       </c>
       <c r="D56" t="n">
-        <v>81</v>
+        <v>695</v>
       </c>
       <c r="E56" t="n">
-        <v>1863</v>
+        <v>1422</v>
       </c>
       <c r="F56" t="n">
-        <v>4.35</v>
+        <v>48.87</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D57" t="n">
-        <v>79</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>1863</v>
+        <v>1422</v>
       </c>
       <c r="F57" t="n">
-        <v>4.24</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D58" t="n">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="E58" t="n">
-        <v>1863</v>
+        <v>1422</v>
       </c>
       <c r="F58" t="n">
-        <v>1.45</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D59" t="n">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="E59" t="n">
-        <v>1863</v>
+        <v>1422</v>
       </c>
       <c r="F59" t="n">
-        <v>0.64</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="C60" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D60" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E60" t="n">
-        <v>1863</v>
+        <v>1422</v>
       </c>
       <c r="F60" t="n">
-        <v>0.27</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D61" t="n">
-        <v>382</v>
+        <v>25</v>
       </c>
       <c r="E61" t="n">
-        <v>441</v>
+        <v>1422</v>
       </c>
       <c r="F61" t="n">
-        <v>86.62</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
-      </c>
-      <c r="C62" t="e">
-        <v>#N/A</v>
+        <v>99</v>
+      </c>
+      <c r="C62" t="s">
+        <v>105</v>
       </c>
       <c r="D62" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="E62" t="n">
-        <v>441</v>
+        <v>1422</v>
       </c>
       <c r="F62" t="n">
-        <v>8.39</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D63" t="n">
-        <v>22</v>
+        <v>458</v>
       </c>
       <c r="E63" t="n">
-        <v>441</v>
+        <v>1021</v>
       </c>
       <c r="F63" t="n">
-        <v>4.99</v>
+        <v>44.86</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C64" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D64" t="n">
-        <v>1133</v>
+        <v>314</v>
       </c>
       <c r="E64" t="n">
-        <v>1422</v>
+        <v>1021</v>
       </c>
       <c r="F64" t="n">
-        <v>79.68</v>
+        <v>30.75</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
-      </c>
-      <c r="C65" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="C65" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D65" t="n">
-        <v>270</v>
+        <v>162</v>
       </c>
       <c r="E65" t="n">
-        <v>1422</v>
+        <v>1021</v>
       </c>
       <c r="F65" t="n">
-        <v>18.99</v>
+        <v>15.87</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>102</v>
-      </c>
-      <c r="C66" t="e">
-        <v>#N/A</v>
+        <v>99</v>
+      </c>
+      <c r="C66" t="s">
+        <v>106</v>
       </c>
       <c r="D66" t="n">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="E66" t="n">
-        <v>1422</v>
+        <v>1021</v>
       </c>
       <c r="F66" t="n">
-        <v>1.34</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="67">
@@ -3758,19 +3933,19 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C67" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D67" t="n">
-        <v>1515</v>
+        <v>5</v>
       </c>
       <c r="E67" t="n">
-        <v>1863</v>
+        <v>1021</v>
       </c>
       <c r="F67" t="n">
-        <v>81.32</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="68">
@@ -3778,299 +3953,299 @@
         <v>16</v>
       </c>
       <c r="B68" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" t="s">
         <v>102</v>
       </c>
-      <c r="C68" t="s">
-        <v>104</v>
-      </c>
       <c r="D68" t="n">
-        <v>292</v>
+        <v>5</v>
       </c>
       <c r="E68" t="n">
-        <v>1863</v>
+        <v>1021</v>
       </c>
       <c r="F68" t="n">
-        <v>15.67</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>102</v>
-      </c>
-      <c r="C69" t="e">
-        <v>#N/A</v>
+        <v>99</v>
+      </c>
+      <c r="C69" t="s">
+        <v>101</v>
       </c>
       <c r="D69" t="n">
-        <v>56</v>
+        <v>1250</v>
       </c>
       <c r="E69" t="n">
-        <v>1863</v>
+        <v>2884</v>
       </c>
       <c r="F69" t="n">
-        <v>3.01</v>
+        <v>43.34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D70" t="n">
-        <v>247</v>
+        <v>1049</v>
       </c>
       <c r="E70" t="n">
-        <v>441</v>
+        <v>2884</v>
       </c>
       <c r="F70" t="n">
-        <v>56.01</v>
+        <v>36.37</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>105</v>
-      </c>
-      <c r="C71" t="s">
-        <v>107</v>
+        <v>99</v>
+      </c>
+      <c r="C71" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D71" t="n">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="E71" t="n">
-        <v>441</v>
+        <v>2884</v>
       </c>
       <c r="F71" t="n">
-        <v>35.37</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>105</v>
-      </c>
-      <c r="C72" t="e">
-        <v>#N/A</v>
+        <v>99</v>
+      </c>
+      <c r="C72" t="s">
+        <v>106</v>
       </c>
       <c r="D72" t="n">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="E72" t="n">
-        <v>441</v>
+        <v>2884</v>
       </c>
       <c r="F72" t="n">
-        <v>7.94</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="E73" t="n">
-        <v>441</v>
+        <v>2884</v>
       </c>
       <c r="F73" t="n">
-        <v>0.45</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C74" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E74" t="n">
-        <v>441</v>
+        <v>2884</v>
       </c>
       <c r="F74" t="n">
-        <v>0.23</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C75" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D75" t="n">
-        <v>1217</v>
+        <v>12</v>
       </c>
       <c r="E75" t="n">
-        <v>1422</v>
+        <v>2884</v>
       </c>
       <c r="F75" t="n">
-        <v>85.58</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B76" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" t="s">
         <v>105</v>
       </c>
-      <c r="C76" t="s">
-        <v>107</v>
-      </c>
       <c r="D76" t="n">
-        <v>188</v>
+        <v>5</v>
       </c>
       <c r="E76" t="n">
-        <v>1422</v>
+        <v>2884</v>
       </c>
       <c r="F76" t="n">
-        <v>13.22</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>105</v>
-      </c>
-      <c r="C77" t="e">
-        <v>#N/A</v>
+        <v>107</v>
+      </c>
+      <c r="C77" t="s">
+        <v>108</v>
       </c>
       <c r="D77" t="n">
-        <v>16</v>
+        <v>382</v>
       </c>
       <c r="E77" t="n">
-        <v>1422</v>
+        <v>441</v>
       </c>
       <c r="F77" t="n">
-        <v>1.13</v>
+        <v>86.62</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>105</v>
-      </c>
-      <c r="C78" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="C78" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E78" t="n">
-        <v>1422</v>
+        <v>441</v>
       </c>
       <c r="F78" t="n">
-        <v>0.07</v>
+        <v>8.39</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C79" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D79" t="n">
-        <v>1464</v>
+        <v>22</v>
       </c>
       <c r="E79" t="n">
-        <v>1863</v>
+        <v>441</v>
       </c>
       <c r="F79" t="n">
-        <v>78.58</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C80" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D80" t="n">
-        <v>344</v>
+        <v>1133</v>
       </c>
       <c r="E80" t="n">
-        <v>1863</v>
+        <v>1422</v>
       </c>
       <c r="F80" t="n">
-        <v>18.46</v>
+        <v>79.68</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>105</v>
-      </c>
-      <c r="C81" t="e">
-        <v>#N/A</v>
+        <v>107</v>
+      </c>
+      <c r="C81" t="s">
+        <v>109</v>
       </c>
       <c r="D81" t="n">
-        <v>51</v>
+        <v>270</v>
       </c>
       <c r="E81" t="n">
-        <v>1863</v>
+        <v>1422</v>
       </c>
       <c r="F81" t="n">
-        <v>2.74</v>
+        <v>18.99</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>105</v>
-      </c>
-      <c r="C82" t="s">
-        <v>34</v>
+        <v>107</v>
+      </c>
+      <c r="C82" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E82" t="n">
-        <v>1863</v>
+        <v>1422</v>
       </c>
       <c r="F82" t="n">
-        <v>0.11</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="83">
@@ -4078,19 +4253,479 @@
         <v>16</v>
       </c>
       <c r="B83" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C83" t="s">
         <v>108</v>
       </c>
       <c r="D83" t="n">
+        <v>811</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1021</v>
+      </c>
+      <c r="F83" t="n">
+        <v>79.43</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>107</v>
+      </c>
+      <c r="C84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D84" t="n">
+        <v>163</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1021</v>
+      </c>
+      <c r="F84" t="n">
+        <v>15.96</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>107</v>
+      </c>
+      <c r="C85" t="s">
+        <v>109</v>
+      </c>
+      <c r="D85" t="n">
+        <v>47</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1021</v>
+      </c>
+      <c r="F85" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>107</v>
+      </c>
+      <c r="C86" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2326</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2884</v>
+      </c>
+      <c r="F86" t="n">
+        <v>80.65</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" t="s">
+        <v>109</v>
+      </c>
+      <c r="D87" t="n">
+        <v>339</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2884</v>
+      </c>
+      <c r="F87" t="n">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D88" t="n">
+        <v>219</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2884</v>
+      </c>
+      <c r="F88" t="n">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>110</v>
+      </c>
+      <c r="C89" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89" t="n">
+        <v>247</v>
+      </c>
+      <c r="E89" t="n">
+        <v>441</v>
+      </c>
+      <c r="F89" t="n">
+        <v>56.01</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" t="s">
+        <v>112</v>
+      </c>
+      <c r="D90" t="n">
+        <v>156</v>
+      </c>
+      <c r="E90" t="n">
+        <v>441</v>
+      </c>
+      <c r="F90" t="n">
+        <v>35.37</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D91" t="n">
+        <v>35</v>
+      </c>
+      <c r="E91" t="n">
+        <v>441</v>
+      </c>
+      <c r="F91" t="n">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>110</v>
+      </c>
+      <c r="C92" t="s">
+        <v>35</v>
+      </c>
+      <c r="D92" t="n">
         <v>2</v>
       </c>
-      <c r="E83" t="n">
-        <v>1863</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0.11</v>
+      <c r="E92" t="n">
+        <v>441</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>110</v>
+      </c>
+      <c r="C93" t="s">
+        <v>113</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>441</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94" t="s">
+        <v>111</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1217</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1422</v>
+      </c>
+      <c r="F94" t="n">
+        <v>85.58</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" t="s">
+        <v>112</v>
+      </c>
+      <c r="D95" t="n">
+        <v>188</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1422</v>
+      </c>
+      <c r="F95" t="n">
+        <v>13.22</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" t="s">
+        <v>110</v>
+      </c>
+      <c r="C96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D96" t="n">
+        <v>16</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1422</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" t="s">
+        <v>113</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1422</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98" t="n">
+        <v>610</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1021</v>
+      </c>
+      <c r="F98" t="n">
+        <v>59.75</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" t="s">
+        <v>112</v>
+      </c>
+      <c r="D99" t="n">
+        <v>329</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1021</v>
+      </c>
+      <c r="F99" t="n">
+        <v>32.22</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D100" t="n">
+        <v>81</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1021</v>
+      </c>
+      <c r="F100" t="n">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101" t="s">
+        <v>35</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1021</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" t="s">
+        <v>111</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2074</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2884</v>
+      </c>
+      <c r="F102" t="n">
+        <v>71.91</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" t="s">
+        <v>112</v>
+      </c>
+      <c r="D103" t="n">
+        <v>673</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2884</v>
+      </c>
+      <c r="F103" t="n">
+        <v>23.34</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" t="s">
+        <v>110</v>
+      </c>
+      <c r="C104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D104" t="n">
+        <v>132</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2884</v>
+      </c>
+      <c r="F104" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>17</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105" t="s">
+        <v>35</v>
+      </c>
+      <c r="D105" t="n">
+        <v>3</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2884</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>17</v>
+      </c>
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2884</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.07</v>
       </c>
     </row>
   </sheetData>
@@ -4129,7 +4764,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="n">
         <v>130</v>
@@ -4141,7 +4776,7 @@
         <v>9.14</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -4149,7 +4784,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="n">
         <v>97</v>
@@ -4161,7 +4796,7 @@
         <v>6.82</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -4169,7 +4804,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="n">
         <v>114</v>
@@ -4181,7 +4816,7 @@
         <v>8.02</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -4189,7 +4824,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="n">
         <v>95</v>
@@ -4201,7 +4836,7 @@
         <v>6.68</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -4209,7 +4844,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="n">
         <v>28</v>
@@ -4221,7 +4856,7 @@
         <v>1.97</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -4229,7 +4864,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="n">
         <v>1109</v>
@@ -4241,7 +4876,7 @@
         <v>77.99</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -4249,7 +4884,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="n">
         <v>15</v>
@@ -4261,7 +4896,7 @@
         <v>1.05</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -4269,7 +4904,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="n">
         <v>347</v>
@@ -4281,7 +4916,7 @@
         <v>78.68</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -4289,7 +4924,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="n">
         <v>50</v>
@@ -4301,7 +4936,7 @@
         <v>11.34</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -4321,7 +4956,7 @@
         <v>9.98</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -4366,10 +5001,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -4386,7 +5021,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="e">
         <v>#N/A</v>
@@ -4406,10 +5041,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
         <v>11</v>
@@ -4426,10 +5061,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
         <v>1329</v>
@@ -4446,10 +5081,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
         <v>74</v>
@@ -4466,7 +5101,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="e">
         <v>#N/A</v>
@@ -4483,13 +5118,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
         <v>1729</v>
@@ -4503,13 +5138,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
         <v>85</v>
@@ -4523,10 +5158,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="e">
         <v>#N/A</v>
@@ -4580,10 +5215,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
         <v>266</v>
@@ -4600,10 +5235,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
         <v>140</v>
@@ -4620,7 +5255,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="e">
         <v>#N/A</v>
@@ -4640,10 +5275,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
         <v>1300</v>
@@ -4660,10 +5295,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
         <v>101</v>
@@ -4680,7 +5315,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="e">
         <v>#N/A</v>
@@ -4697,13 +5332,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
         <v>1566</v>
@@ -4717,13 +5352,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
         <v>241</v>
@@ -4737,10 +5372,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="e">
         <v>#N/A</v>
@@ -4794,10 +5429,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
         <v>1016</v>
@@ -4814,10 +5449,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
         <v>210</v>
@@ -4834,10 +5469,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
         <v>57</v>
@@ -4854,10 +5489,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
         <v>38</v>
@@ -4874,10 +5509,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
         <v>37</v>
@@ -4894,10 +5529,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
         <v>33</v>
@@ -4914,7 +5549,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="e">
         <v>#N/A</v>
@@ -4934,10 +5569,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
@@ -4954,10 +5589,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="n">
         <v>6</v>
@@ -4974,10 +5609,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -5028,10 +5663,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
         <v>208</v>
@@ -5048,10 +5683,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="n">
         <v>95</v>
@@ -5068,10 +5703,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
         <v>64</v>
@@ -5088,10 +5723,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
         <v>29</v>
@@ -5108,7 +5743,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" t="e">
         <v>#N/A</v>
@@ -5128,10 +5763,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="n">
         <v>22</v>
@@ -5148,10 +5783,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" t="n">
         <v>528</v>
@@ -5168,10 +5803,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" t="n">
         <v>339</v>
@@ -5188,10 +5823,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="n">
         <v>297</v>
@@ -5208,10 +5843,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="n">
         <v>251</v>
@@ -5228,10 +5863,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" t="n">
         <v>5</v>
@@ -5248,7 +5883,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="e">
         <v>#N/A</v>
@@ -5265,13 +5900,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" t="n">
         <v>592</v>
@@ -5285,13 +5920,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" t="n">
         <v>392</v>
@@ -5305,13 +5940,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" t="n">
         <v>368</v>
@@ -5325,13 +5960,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" t="n">
         <v>273</v>
@@ -5345,13 +5980,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" t="n">
         <v>213</v>
@@ -5365,10 +6000,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" t="e">
         <v>#N/A</v>
@@ -5422,10 +6057,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
         <v>188</v>
@@ -5442,10 +6077,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
         <v>58</v>
@@ -5462,10 +6097,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" t="n">
         <v>56</v>
@@ -5482,10 +6117,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" t="n">
         <v>28</v>
@@ -5502,10 +6137,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" t="n">
         <v>34</v>
@@ -5522,10 +6157,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" t="n">
         <v>44</v>
@@ -5542,10 +6177,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" t="n">
         <v>46</v>
@@ -5596,10 +6231,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" t="n">
         <v>193</v>
@@ -5616,7 +6251,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" t="e">
         <v>#N/A</v>
@@ -5636,10 +6271,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
         <v>76</v>
@@ -5656,10 +6291,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
         <v>802</v>
@@ -5676,10 +6311,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="n">
         <v>594</v>
@@ -5696,7 +6331,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="e">
         <v>#N/A</v>
@@ -5713,13 +6348,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
         <v>878</v>
@@ -5733,13 +6368,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" t="n">
         <v>787</v>
@@ -5753,10 +6388,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" t="e">
         <v>#N/A</v>
@@ -5810,10 +6445,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
         <v>237</v>
@@ -5830,10 +6465,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
         <v>183</v>
@@ -5850,7 +6485,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" t="e">
         <v>#N/A</v>
@@ -5870,10 +6505,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
         <v>989</v>
@@ -5890,10 +6525,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
         <v>423</v>
@@ -5910,7 +6545,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" t="e">
         <v>#N/A</v>
@@ -5930,19 +6565,19 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>1226</v>
+        <v>209</v>
       </c>
       <c r="E8" t="n">
-        <v>1863</v>
+        <v>667</v>
       </c>
       <c r="F8" t="n">
-        <v>65.81</v>
+        <v>31.33</v>
       </c>
     </row>
     <row r="9">
@@ -5950,19 +6585,19 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
-        <v>606</v>
+        <v>174</v>
       </c>
       <c r="E9" t="n">
-        <v>1863</v>
+        <v>667</v>
       </c>
       <c r="F9" t="n">
-        <v>32.53</v>
+        <v>26.09</v>
       </c>
     </row>
     <row r="10">
@@ -5970,19 +6605,79 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" t="e">
         <v>#N/A</v>
       </c>
       <c r="D10" t="n">
-        <v>31</v>
+        <v>284</v>
       </c>
       <c r="E10" t="n">
-        <v>1863</v>
+        <v>667</v>
       </c>
       <c r="F10" t="n">
-        <v>1.66</v>
+        <v>42.58</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2530</v>
+      </c>
+      <c r="F11" t="n">
+        <v>55.34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="n">
+        <v>815</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2530</v>
+      </c>
+      <c r="F12" t="n">
+        <v>32.21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D13" t="n">
+        <v>315</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2530</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12.45</v>
       </c>
     </row>
   </sheetData>
